--- a/Working Documentation/Homepage Elements.xlsx
+++ b/Working Documentation/Homepage Elements.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARJUN\Documents\PMASD\Working Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC71800-8C04-44BF-824E-943EED661A42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F297F499-1914-4469-B820-77ADE7B398C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7D13C21C-1AA3-46B6-AAB8-FD1816EAA223}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7D13C21C-1AA3-46B6-AAB8-FD1816EAA223}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="86">
   <si>
     <t>Homepage elements</t>
   </si>
@@ -172,6 +173,123 @@
   </si>
   <si>
     <t>Laptop behind Chair on Desk</t>
+  </si>
+  <si>
+    <t>Consultation</t>
+  </si>
+  <si>
+    <t>Pharma</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>Admission</t>
+  </si>
+  <si>
+    <t>Referred To</t>
+  </si>
+  <si>
+    <t>Locum</t>
+  </si>
+  <si>
+    <t>PMF</t>
+  </si>
+  <si>
+    <t>Savings Bank</t>
+  </si>
+  <si>
+    <t>Demat Accounts</t>
+  </si>
+  <si>
+    <t>PPF</t>
+  </si>
+  <si>
+    <t>Bank Charges</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>Tax Free Bonds</t>
+  </si>
+  <si>
+    <t>Jewellery</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Investments &amp; Assets</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>TFB</t>
+  </si>
+  <si>
+    <t>Refunds</t>
+  </si>
+  <si>
+    <t>Loans</t>
+  </si>
+  <si>
+    <t>Gifts</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Income Tax</t>
+  </si>
+  <si>
+    <t>Professional Tax</t>
+  </si>
+  <si>
+    <t>Advance Tax</t>
+  </si>
+  <si>
+    <t>TDS</t>
+  </si>
+  <si>
+    <t>TCS</t>
+  </si>
+  <si>
+    <t>Professional Expenses</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Non P&amp;L</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Drawings</t>
+  </si>
+  <si>
+    <t>School Fees</t>
+  </si>
+  <si>
+    <t>Internal Transfers</t>
+  </si>
+  <si>
+    <t>Reports</t>
   </si>
 </sst>
 </file>
@@ -544,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B096DDC-CF07-4AF1-A5A9-329AA193E28B}">
   <dimension ref="B1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11:N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,4 +862,217 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23CA071-E014-455C-9F09-E8424A873D54}">
+  <dimension ref="B2:P23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>64</v>
+      </c>
+      <c r="N17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" t="s">
+        <v>67</v>
+      </c>
+      <c r="N19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" t="s">
+        <v>81</v>
+      </c>
+      <c r="N21" t="s">
+        <v>80</v>
+      </c>
+      <c r="P21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="P22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>